--- a/doc/工程表.xlsx
+++ b/doc/工程表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Webアプリ開発演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF959FD-F24B-4B32-849F-BB5D2966F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D43F8C-8713-440E-AC83-F9D76DE4F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FFBDD6EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
@@ -788,62 +794,8 @@
     <xf numFmtId="20" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,6 +818,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -875,13 +848,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2144,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AM1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -2197,18 +2203,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B2" s="65">
+      <c r="B2" s="47">
         <v>2024</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="47">
         <v>6</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2281,55 +2287,55 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="19.5" customHeight="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="46" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="57" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="46" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="57" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="58">
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="67">
         <v>45448</v>
       </c>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="57" t="s">
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -2369,52 +2375,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="66">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
     </row>
     <row r="7" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2540,10 +2546,10 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2678,16 +2684,16 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2695,8 +2701,8 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -2725,14 +2731,14 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2740,8 +2746,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -2770,23 +2776,23 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -2815,14 +2821,14 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2830,8 +2836,8 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -2860,14 +2866,14 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="36"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
@@ -2875,8 +2881,8 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -2896,7 +2902,7 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="69"/>
+      <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
@@ -2905,16 +2911,16 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="33"/>
@@ -2922,11 +2928,11 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="32"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -2952,20 +2958,20 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="37"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="15"/>
       <c r="N15" s="11"/>
       <c r="O15" s="16"/>
@@ -2997,20 +3003,20 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="38"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="14"/>
       <c r="N16" s="11"/>
       <c r="O16" s="16"/>
@@ -3032,7 +3038,7 @@
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
-      <c r="AH16" s="69"/>
+      <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="17"/>
@@ -3042,20 +3048,20 @@
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="39"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="14"/>
       <c r="N17" s="11"/>
       <c r="O17" s="16"/>
@@ -3087,16 +3093,16 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="11"/>
@@ -3134,14 +3140,14 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -3151,7 +3157,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
-      <c r="P19" s="71"/>
+      <c r="P19" s="33"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="14"/>
@@ -3179,14 +3185,14 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3196,7 +3202,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
-      <c r="P20" s="71"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
@@ -3224,14 +3230,14 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3241,7 +3247,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="71"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="14"/>
@@ -3269,14 +3275,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3286,7 +3292,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
-      <c r="P22" s="71"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
@@ -3298,8 +3304,8 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
@@ -3314,14 +3320,14 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3331,20 +3337,20 @@
       <c r="M23" s="16"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
-      <c r="P23" s="71"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
@@ -3359,14 +3365,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -3381,15 +3387,15 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
@@ -3404,14 +3410,14 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -3433,8 +3439,8 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
@@ -3452,13 +3458,13 @@
       <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3466,8 +3472,8 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
@@ -3480,15 +3486,15 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="70"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="40"/>
       <c r="AK26" s="17"/>
       <c r="AL26" s="17"/>
       <c r="AM26" s="18">
@@ -3575,12 +3581,12 @@
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3615,12 +3621,12 @@
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3655,12 +3661,12 @@
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3695,12 +3701,12 @@
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
       <c r="A32" s="24"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -39587,6 +39593,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -39603,27 +39630,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">

--- a/doc/工程表.xlsx
+++ b/doc/工程表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D43F8C-8713-440E-AC83-F9D76DE4F2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0129D3B7-5949-4940-BF5F-BBB632F7AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,6 +797,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,27 +881,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -847,48 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,7 +2151,7 @@
   <dimension ref="A1:AM1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -2203,18 +2203,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B2" s="47">
+      <c r="B2" s="68">
         <v>2024</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="68">
         <v>6</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2287,55 +2287,55 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="19.5" customHeight="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="49" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="49" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="67">
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="61">
         <v>45448</v>
       </c>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="49" t="s">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -2375,52 +2375,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="59">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
     </row>
     <row r="7" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B7" s="61"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2546,10 +2546,10 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2684,23 +2684,23 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="15"/>
@@ -2731,21 +2731,21 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="15"/>
@@ -2776,21 +2776,21 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="26"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="15"/>
@@ -2821,14 +2821,14 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2866,14 +2866,14 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="36"/>
       <c r="H13" s="9"/>
       <c r="I13" s="11"/>
@@ -2911,23 +2911,23 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="33"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="32"/>
@@ -2958,21 +2958,21 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="37"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="15"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="11"/>
       <c r="O15" s="16"/>
       <c r="P15" s="15"/>
@@ -3003,21 +3003,21 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="38"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="14"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="11"/>
       <c r="O16" s="16"/>
       <c r="P16" s="14"/>
@@ -3048,21 +3048,21 @@
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="39"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="11"/>
       <c r="O17" s="16"/>
       <c r="P17" s="14"/>
@@ -3093,16 +3093,16 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="11"/>
@@ -3140,14 +3140,14 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -3185,14 +3185,14 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3230,14 +3230,14 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3275,14 +3275,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3320,14 +3320,14 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3365,14 +3365,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -3410,14 +3410,14 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -3458,13 +3458,13 @@
       <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3581,12 +3581,12 @@
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3621,12 +3621,12 @@
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3661,12 +3661,12 @@
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3701,12 +3701,12 @@
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
       <c r="A32" s="24"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -39593,27 +39593,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -39630,6 +39609,27 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
